--- a/explain.xlsx
+++ b/explain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="1890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="1890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1853,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
@@ -3371,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD48"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
